--- a/Code/Results/Cases/Case_3_255/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_255/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.84439944360038</v>
+        <v>13.31988742298459</v>
       </c>
       <c r="C2">
-        <v>6.670512394733259</v>
+        <v>7.450744628479877</v>
       </c>
       <c r="D2">
-        <v>5.881730550981897</v>
+        <v>8.521319697582616</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.3694401911778</v>
+        <v>37.08832220141597</v>
       </c>
       <c r="G2">
-        <v>2.12199724945339</v>
+        <v>3.688117323192412</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.50943383092428</v>
+        <v>27.92132695538892</v>
       </c>
       <c r="J2">
-        <v>6.125218686084937</v>
+        <v>10.53945038367646</v>
       </c>
       <c r="K2">
-        <v>11.35291623435313</v>
+        <v>10.4280967869138</v>
       </c>
       <c r="L2">
-        <v>7.427482367962527</v>
+        <v>11.67411010394762</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.0592451449841</v>
+        <v>28.39819587319363</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.91396657171702</v>
+        <v>13.08552156146055</v>
       </c>
       <c r="C3">
-        <v>6.548540503306273</v>
+        <v>7.411935438787108</v>
       </c>
       <c r="D3">
-        <v>5.676072991372239</v>
+        <v>8.499367562941936</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.320803913848</v>
+        <v>37.19029826516469</v>
       </c>
       <c r="G3">
-        <v>2.126703559449606</v>
+        <v>3.689904212881955</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.70443176766263</v>
+        <v>28.02635645040964</v>
       </c>
       <c r="J3">
-        <v>6.169224286708184</v>
+        <v>10.56173771461897</v>
       </c>
       <c r="K3">
-        <v>10.68959165890349</v>
+        <v>10.26033729571833</v>
       </c>
       <c r="L3">
-        <v>7.265299257544605</v>
+        <v>11.66928250930501</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.16942800026347</v>
+        <v>28.49563815991452</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.33592575521155</v>
+        <v>12.94137273127791</v>
       </c>
       <c r="C4">
-        <v>6.472514799772703</v>
+        <v>7.387791827781644</v>
       </c>
       <c r="D4">
-        <v>5.54795526684947</v>
+        <v>8.487012254949335</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.3093809286164</v>
+        <v>37.26023124280371</v>
       </c>
       <c r="G4">
-        <v>2.129686497804113</v>
+        <v>3.691060133755287</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.83492412488688</v>
+        <v>28.09540865967248</v>
       </c>
       <c r="J4">
-        <v>6.197931681720389</v>
+        <v>10.57630978554013</v>
       </c>
       <c r="K4">
-        <v>10.26053494672277</v>
+        <v>10.15723738312069</v>
       </c>
       <c r="L4">
-        <v>7.166734634038642</v>
+        <v>11.66781652829422</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.24989796314895</v>
+        <v>28.56053386295494</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.09939800515075</v>
+        <v>12.8826429082736</v>
       </c>
       <c r="C5">
-        <v>6.441267256405202</v>
+        <v>7.377877156282215</v>
       </c>
       <c r="D5">
-        <v>5.495360159697097</v>
+        <v>8.482263365854205</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.30922533660667</v>
+        <v>37.29056766527374</v>
       </c>
       <c r="G5">
-        <v>2.13092598406743</v>
+        <v>3.691546002718167</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.89072027139853</v>
+        <v>28.12469579483335</v>
       </c>
       <c r="J5">
-        <v>6.21005162567929</v>
+        <v>10.58247169344236</v>
       </c>
       <c r="K5">
-        <v>10.08025872478644</v>
+        <v>10.11524896409019</v>
       </c>
       <c r="L5">
-        <v>7.126871283601767</v>
+        <v>11.66759744746888</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.28579499757039</v>
+        <v>28.58825236498105</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.05969961970721</v>
+        <v>12.87289378060865</v>
       </c>
       <c r="C6">
-        <v>6.436063101842104</v>
+        <v>7.376226337238126</v>
       </c>
       <c r="D6">
-        <v>5.486605855024583</v>
+        <v>8.481492188459884</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.30946715229521</v>
+        <v>37.29571595439357</v>
       </c>
       <c r="G6">
-        <v>2.131133257538143</v>
+        <v>3.69162757742421</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.90014095418922</v>
+        <v>28.12962823270574</v>
       </c>
       <c r="J6">
-        <v>6.212089505684839</v>
+        <v>10.58350839705342</v>
       </c>
       <c r="K6">
-        <v>10.04999746594816</v>
+        <v>10.10827982444378</v>
       </c>
       <c r="L6">
-        <v>7.120271659155339</v>
+        <v>11.66758396254298</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.29193982113444</v>
+        <v>28.59293186077539</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.3327642891089</v>
+        <v>12.94058053292107</v>
       </c>
       <c r="C7">
-        <v>6.472094437743658</v>
+        <v>7.387658418425537</v>
       </c>
       <c r="D7">
-        <v>5.547247406951248</v>
+        <v>8.486947047283957</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.30936079710409</v>
+        <v>37.26063293095336</v>
       </c>
       <c r="G7">
-        <v>2.129703116513805</v>
+        <v>3.691066626280639</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.83566611584846</v>
+        <v>28.0957989885131</v>
       </c>
       <c r="J7">
-        <v>6.198093432815482</v>
+        <v>10.57639198090186</v>
       </c>
       <c r="K7">
-        <v>10.25812560526603</v>
+        <v>10.15667094303118</v>
       </c>
       <c r="L7">
-        <v>7.166195735557851</v>
+        <v>11.66781203989444</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.25036966477164</v>
+        <v>28.5609025312727</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.53065979734934</v>
+        <v>13.23917348349084</v>
       </c>
       <c r="C8">
-        <v>6.628702903011355</v>
+        <v>7.437430410185105</v>
       </c>
       <c r="D8">
-        <v>5.811246691518768</v>
+        <v>8.513519612208361</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.34876182730779</v>
+        <v>37.12196309330306</v>
       </c>
       <c r="G8">
-        <v>2.123600919711768</v>
+        <v>3.688721273726432</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.57438118925043</v>
+        <v>27.95659406979993</v>
       </c>
       <c r="J8">
-        <v>6.140039666048778</v>
+        <v>10.54695113517174</v>
       </c>
       <c r="K8">
-        <v>11.12874190875122</v>
+        <v>10.37030251111157</v>
       </c>
       <c r="L8">
-        <v>7.371378584860825</v>
+        <v>11.67213559165877</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.09450370592723</v>
+        <v>28.43074207671577</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.66473264293996</v>
+        <v>13.8195683975515</v>
       </c>
       <c r="C9">
-        <v>6.926045402803363</v>
+        <v>7.532399812801029</v>
       </c>
       <c r="D9">
-        <v>6.311278518689367</v>
+        <v>8.574379071483897</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.57825156988531</v>
+        <v>36.90820481780798</v>
       </c>
       <c r="G9">
-        <v>2.112352179837024</v>
+        <v>3.684586238115892</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.15160757578267</v>
+        <v>27.71981394975688</v>
       </c>
       <c r="J9">
-        <v>6.039733088320796</v>
+        <v>10.49623818382338</v>
       </c>
       <c r="K9">
-        <v>12.66210691588994</v>
+        <v>10.78634421517178</v>
       </c>
       <c r="L9">
-        <v>7.779800857123785</v>
+        <v>11.69242740718602</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.89603647602468</v>
+        <v>28.21572943381213</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.07148863922724</v>
+        <v>14.23872629625061</v>
       </c>
       <c r="C10">
-        <v>7.137624584199817</v>
+        <v>7.600387531766915</v>
       </c>
       <c r="D10">
-        <v>6.66430888434826</v>
+        <v>8.624196895970773</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.84736774444324</v>
+        <v>36.78674485202183</v>
       </c>
       <c r="G10">
-        <v>2.104492650090719</v>
+        <v>3.681828317484009</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.90190335976382</v>
+        <v>27.56790560003646</v>
       </c>
       <c r="J10">
-        <v>5.974510304632793</v>
+        <v>10.46322893584884</v>
       </c>
       <c r="K10">
-        <v>13.68194588556321</v>
+        <v>11.08746481898427</v>
       </c>
       <c r="L10">
-        <v>8.081005577923033</v>
+        <v>11.71443188785597</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.82337062464245</v>
+        <v>28.0823357786628</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.67713983853962</v>
+        <v>14.42701346220322</v>
       </c>
       <c r="C11">
-        <v>7.232217354248756</v>
+        <v>7.630890682021235</v>
       </c>
       <c r="D11">
-        <v>6.821183887539307</v>
+        <v>8.647915494312043</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.9931505772037</v>
+        <v>36.73923971203355</v>
       </c>
       <c r="G11">
-        <v>2.100997472979563</v>
+        <v>3.680633871476543</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.80304789686507</v>
+        <v>27.5035848467654</v>
       </c>
       <c r="J11">
-        <v>5.946733543567884</v>
+        <v>10.44912852982537</v>
       </c>
       <c r="K11">
-        <v>14.12276354840506</v>
+        <v>11.2229041778308</v>
       </c>
       <c r="L11">
-        <v>8.217784599431456</v>
+        <v>11.72595784891356</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.80795333665239</v>
+        <v>28.02699848531423</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.9016087567185</v>
+        <v>14.49790470114239</v>
       </c>
       <c r="C12">
-        <v>7.267787070115493</v>
+        <v>7.642377051162069</v>
       </c>
       <c r="D12">
-        <v>6.880011225881903</v>
+        <v>8.657044174733555</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.05183028229068</v>
+        <v>36.7223663134578</v>
       </c>
       <c r="G12">
-        <v>2.099684808446796</v>
+        <v>3.68019016823187</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.76787042493462</v>
+        <v>27.47991603084546</v>
       </c>
       <c r="J12">
-        <v>5.936492703078447</v>
+        <v>10.44392025949095</v>
       </c>
       <c r="K12">
-        <v>14.28637784002809</v>
+        <v>11.27392534783486</v>
       </c>
       <c r="L12">
-        <v>8.269507334109683</v>
+        <v>11.73053802490182</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.80480129049383</v>
+        <v>28.00681308197582</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.85348145855363</v>
+        <v>14.48265620072335</v>
       </c>
       <c r="C13">
-        <v>7.260137817099706</v>
+        <v>7.639906179583372</v>
       </c>
       <c r="D13">
-        <v>6.867368019640171</v>
+        <v>8.655071694115488</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.03903623328553</v>
+        <v>36.72595065384564</v>
       </c>
       <c r="G13">
-        <v>2.099967040874663</v>
+        <v>3.680285345496674</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.77534384684444</v>
+        <v>27.48498292802636</v>
       </c>
       <c r="J13">
-        <v>5.938685813811633</v>
+        <v>10.44503612314296</v>
       </c>
       <c r="K13">
-        <v>14.25128773833967</v>
+        <v>11.2629495864581</v>
       </c>
       <c r="L13">
-        <v>8.258371710516576</v>
+        <v>11.72954205626008</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.80535825291484</v>
+        <v>28.01112612234613</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.69570448851783</v>
+        <v>14.43285428696038</v>
       </c>
       <c r="C14">
-        <v>7.235148782089934</v>
+        <v>7.631836984995105</v>
       </c>
       <c r="D14">
-        <v>6.826035451331859</v>
+        <v>8.648663599816567</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.99790790858511</v>
+        <v>36.73782915708953</v>
       </c>
       <c r="G14">
-        <v>2.100889264988732</v>
+        <v>3.680597195470984</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.80010776862717</v>
+        <v>27.50162380780777</v>
       </c>
       <c r="J14">
-        <v>5.945885427223086</v>
+        <v>10.44869741431161</v>
       </c>
       <c r="K14">
-        <v>14.13629053098679</v>
+        <v>11.22710731756024</v>
       </c>
       <c r="L14">
-        <v>8.222041518395926</v>
+        <v>11.72633035748277</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.80763931186958</v>
+        <v>28.02532238905999</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.59842785836595</v>
+        <v>14.40229402727026</v>
       </c>
       <c r="C15">
-        <v>7.219809311941355</v>
+        <v>7.626885867604773</v>
       </c>
       <c r="D15">
-        <v>6.800641647312071</v>
+        <v>8.64475744676834</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.97317148699715</v>
+        <v>36.74525043430928</v>
       </c>
       <c r="G15">
-        <v>2.101455551433738</v>
+        <v>3.680789332318304</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.81557456247849</v>
+        <v>27.5119064404565</v>
       </c>
       <c r="J15">
-        <v>5.950331719279282</v>
+        <v>10.4509571406385</v>
       </c>
       <c r="K15">
-        <v>14.06542025881155</v>
+        <v>11.20511684858862</v>
       </c>
       <c r="L15">
-        <v>8.199777715466174</v>
+        <v>11.72439109421551</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.80939084374968</v>
+        <v>28.03411827425775</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.03122239935051</v>
+        <v>14.22636753306823</v>
       </c>
       <c r="C16">
-        <v>7.131408307551982</v>
+        <v>7.598385237808874</v>
       </c>
       <c r="D16">
-        <v>6.653978063392437</v>
+        <v>8.622667667017041</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.8383205976307</v>
+        <v>36.79000547491948</v>
       </c>
       <c r="G16">
-        <v>2.104722627009152</v>
+        <v>3.681907584084619</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.90867189846711</v>
+        <v>27.57220538192059</v>
       </c>
       <c r="J16">
-        <v>5.976364127371441</v>
+        <v>10.46416881972256</v>
       </c>
       <c r="K16">
-        <v>13.65267302874094</v>
+        <v>11.07857861401402</v>
       </c>
       <c r="L16">
-        <v>8.072058589153901</v>
+        <v>11.71370893853598</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.8247458364278</v>
+        <v>28.08605983750026</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.67451504936241</v>
+        <v>14.1177826640253</v>
       </c>
       <c r="C17">
-        <v>7.076743732015717</v>
+        <v>7.580789779654117</v>
       </c>
       <c r="D17">
-        <v>6.563019321669897</v>
+        <v>8.609383381381429</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.76166141455782</v>
+        <v>36.81944685989586</v>
       </c>
       <c r="G17">
-        <v>2.106746957084461</v>
+        <v>3.6826089705861</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.96965352318175</v>
+        <v>27.61042207055696</v>
       </c>
       <c r="J17">
-        <v>5.992822764673581</v>
+        <v>10.47250797776632</v>
       </c>
       <c r="K17">
-        <v>13.39355132449206</v>
+        <v>11.00052389605249</v>
       </c>
       <c r="L17">
-        <v>7.993617406606381</v>
+        <v>11.70754236690765</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.83878874800227</v>
+        <v>28.11929389333329</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.466115734732</v>
+        <v>14.05510627777051</v>
       </c>
       <c r="C18">
-        <v>7.045146916752648</v>
+        <v>7.570629556964685</v>
       </c>
       <c r="D18">
-        <v>6.510354231789211</v>
+        <v>8.601842334225289</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.71976136223495</v>
+        <v>36.83710992324401</v>
       </c>
       <c r="G18">
-        <v>2.107918884198329</v>
+        <v>3.683018053220103</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.00610675867626</v>
+        <v>27.63285349192425</v>
       </c>
       <c r="J18">
-        <v>6.002467205619479</v>
+        <v>10.47739065286377</v>
       </c>
       <c r="K18">
-        <v>13.24233494170833</v>
+        <v>10.95548632610593</v>
       </c>
       <c r="L18">
-        <v>7.948479542027329</v>
+        <v>11.70413836830444</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.84851691998818</v>
+        <v>28.13891219291159</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.39499884975822</v>
+        <v>14.03384917812091</v>
       </c>
       <c r="C19">
-        <v>7.034422528593813</v>
+        <v>7.56718275243283</v>
       </c>
       <c r="D19">
-        <v>6.492464373990177</v>
+        <v>8.599306339698598</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.70594762464036</v>
+        <v>36.84321551145264</v>
       </c>
       <c r="G19">
-        <v>2.108317000498809</v>
+        <v>3.683157535579129</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.0186818612813</v>
+        <v>27.64052569963828</v>
       </c>
       <c r="J19">
-        <v>6.005763041677056</v>
+        <v>10.47905866274248</v>
       </c>
       <c r="K19">
-        <v>13.19076167343489</v>
+        <v>10.94021429943906</v>
       </c>
       <c r="L19">
-        <v>7.933194313543342</v>
+        <v>11.70301044004404</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.85208977858165</v>
+        <v>28.14564095879522</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.71282114117362</v>
+        <v>14.12936509049134</v>
       </c>
       <c r="C20">
-        <v>7.082579027052463</v>
+        <v>7.582666988220321</v>
       </c>
       <c r="D20">
-        <v>6.572738385187993</v>
+        <v>8.610787230444865</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.76959416498555</v>
+        <v>36.81623729623015</v>
       </c>
       <c r="G20">
-        <v>2.10653068311589</v>
+        <v>3.682533720927896</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.96301831620827</v>
+        <v>27.60630724379456</v>
       </c>
       <c r="J20">
-        <v>5.991052268804972</v>
+        <v>10.47161134063084</v>
       </c>
       <c r="K20">
-        <v>13.42136047356843</v>
+        <v>11.00884804127234</v>
       </c>
       <c r="L20">
-        <v>8.001970018803165</v>
+        <v>11.70818404185863</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.83712190414951</v>
+        <v>28.11570400954724</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.74217937169185</v>
+        <v>14.44749392124531</v>
       </c>
       <c r="C21">
-        <v>7.242495557038894</v>
+        <v>7.634208881089727</v>
       </c>
       <c r="D21">
-        <v>6.83819182046789</v>
+        <v>8.650541864027247</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.00989309482973</v>
+        <v>36.73430985911214</v>
       </c>
       <c r="G21">
-        <v>2.100618095368571</v>
+        <v>3.680505364296606</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.79277160522452</v>
+        <v>27.49671730222256</v>
       </c>
       <c r="J21">
-        <v>5.943763146746155</v>
+        <v>10.44761844568763</v>
       </c>
       <c r="K21">
-        <v>14.17015782650886</v>
+        <v>11.23764264988379</v>
       </c>
       <c r="L21">
-        <v>8.232714829906218</v>
+        <v>11.72726788172151</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.80689519827047</v>
+        <v>28.02113170490254</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.38651688248479</v>
+        <v>14.65299748793857</v>
       </c>
       <c r="C22">
-        <v>7.345545505493536</v>
+        <v>7.667516887937073</v>
       </c>
       <c r="D22">
-        <v>7.008297536707284</v>
+        <v>8.677378018614498</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.18724616959737</v>
+        <v>36.6872696785166</v>
       </c>
       <c r="G22">
-        <v>2.096816986037252</v>
+        <v>3.67922986833493</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.69473160096957</v>
+        <v>27.4291046005321</v>
       </c>
       <c r="J22">
-        <v>5.91447797521712</v>
+        <v>10.43270251837725</v>
       </c>
       <c r="K22">
-        <v>14.64023346915126</v>
+        <v>11.38559874937156</v>
       </c>
       <c r="L22">
-        <v>8.383082098990851</v>
+        <v>11.74099539484928</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.80286901712573</v>
+        <v>27.963809733511</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.04520337599128</v>
+        <v>14.54355778180208</v>
       </c>
       <c r="C23">
-        <v>7.290683503111607</v>
+        <v>7.649775455001759</v>
       </c>
       <c r="D23">
-        <v>6.917831031757495</v>
+        <v>8.662978568552578</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.09069504267362</v>
+        <v>36.71178029418643</v>
       </c>
       <c r="G23">
-        <v>2.098840158132509</v>
+        <v>3.67990604917033</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.74579915326076</v>
+        <v>27.46482370642772</v>
       </c>
       <c r="J23">
-        <v>5.929957802692098</v>
+        <v>10.44059358780327</v>
       </c>
       <c r="K23">
-        <v>14.39110708959855</v>
+        <v>11.30679020231286</v>
       </c>
       <c r="L23">
-        <v>8.302879959135145</v>
+        <v>11.73355476699355</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.80352835728779</v>
+        <v>27.99399266220895</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.69551331302259</v>
+        <v>14.12412944761197</v>
       </c>
       <c r="C24">
-        <v>7.079941416916393</v>
+        <v>7.58181844014873</v>
       </c>
       <c r="D24">
-        <v>6.568345551005117</v>
+        <v>8.610152250068214</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.7660010110193</v>
+        <v>36.81768604494694</v>
       </c>
       <c r="G24">
-        <v>2.106628435259327</v>
+        <v>3.682567723084704</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.96601376133193</v>
+        <v>27.60816612367969</v>
       </c>
       <c r="J24">
-        <v>5.991852143025509</v>
+        <v>10.47201643494632</v>
       </c>
       <c r="K24">
-        <v>13.40879494707315</v>
+        <v>11.00508519908183</v>
       </c>
       <c r="L24">
-        <v>7.998193927566652</v>
+        <v>11.70789350046994</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.83787034148631</v>
+        <v>28.11732540248512</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.11593248388489</v>
+        <v>13.66354191011074</v>
       </c>
       <c r="C25">
-        <v>6.846752566483358</v>
+        <v>7.507008659012501</v>
       </c>
       <c r="D25">
-        <v>6.178294356608256</v>
+        <v>8.557001095495401</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.49905404605372</v>
+        <v>36.95979057798991</v>
       </c>
       <c r="G25">
-        <v>2.115321697366703</v>
+        <v>3.685655480220668</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.2557668951361</v>
+        <v>27.77999537909469</v>
       </c>
       <c r="J25">
-        <v>6.065398089095407</v>
+        <v>10.50920894124551</v>
       </c>
       <c r="K25">
-        <v>12.26601993668594</v>
+        <v>10.67439590366976</v>
       </c>
       <c r="L25">
-        <v>7.668935237947096</v>
+        <v>11.68568357358704</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.93746200341517</v>
+        <v>28.26958376040688</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_255/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_255/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.31988742298459</v>
+        <v>13.84439944360037</v>
       </c>
       <c r="C2">
-        <v>7.450744628479877</v>
+        <v>6.670512394733133</v>
       </c>
       <c r="D2">
-        <v>8.521319697582616</v>
+        <v>5.881730550981812</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.08832220141597</v>
+        <v>24.36944019117783</v>
       </c>
       <c r="G2">
-        <v>3.688117323192412</v>
+        <v>2.121997249453523</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.92132695538892</v>
+        <v>17.50943383092429</v>
       </c>
       <c r="J2">
-        <v>10.53945038367646</v>
+        <v>6.125218686084998</v>
       </c>
       <c r="K2">
-        <v>10.4280967869138</v>
+        <v>11.35291623435309</v>
       </c>
       <c r="L2">
-        <v>11.67411010394762</v>
+        <v>7.427482367962561</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.39819587319363</v>
+        <v>18.05924514498417</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.08552156146055</v>
+        <v>12.91396657171701</v>
       </c>
       <c r="C3">
-        <v>7.411935438787108</v>
+        <v>6.548540503306495</v>
       </c>
       <c r="D3">
-        <v>8.499367562941936</v>
+        <v>5.676072991372279</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.19029826516469</v>
+        <v>24.32080391384797</v>
       </c>
       <c r="G3">
-        <v>3.689904212881955</v>
+        <v>2.126703559449741</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.02635645040964</v>
+        <v>17.70443176766264</v>
       </c>
       <c r="J3">
-        <v>10.56173771461897</v>
+        <v>6.169224286708155</v>
       </c>
       <c r="K3">
-        <v>10.26033729571833</v>
+        <v>10.68959165890353</v>
       </c>
       <c r="L3">
-        <v>11.66928250930501</v>
+        <v>7.265299257544487</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.49563815991452</v>
+        <v>18.16942800026346</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.94137273127791</v>
+        <v>12.33592575521155</v>
       </c>
       <c r="C4">
-        <v>7.387791827781644</v>
+        <v>6.472514799772822</v>
       </c>
       <c r="D4">
-        <v>8.487012254949335</v>
+        <v>5.547955266849392</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.26023124280371</v>
+        <v>24.3093809286162</v>
       </c>
       <c r="G4">
-        <v>3.691060133755287</v>
+        <v>2.129686497804248</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.09540865967248</v>
+        <v>17.8349241248868</v>
       </c>
       <c r="J4">
-        <v>10.57630978554013</v>
+        <v>6.197931681720541</v>
       </c>
       <c r="K4">
-        <v>10.15723738312069</v>
+        <v>10.2605349467228</v>
       </c>
       <c r="L4">
-        <v>11.66781652829422</v>
+        <v>7.166734634038682</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.56053386295494</v>
+        <v>18.24989796314881</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.8826429082736</v>
+        <v>12.09939800515073</v>
       </c>
       <c r="C5">
-        <v>7.377877156282215</v>
+        <v>6.441267256405323</v>
       </c>
       <c r="D5">
-        <v>8.482263365854205</v>
+        <v>5.495360159697041</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>37.29056766527374</v>
+        <v>24.30922533660624</v>
       </c>
       <c r="G5">
-        <v>3.691546002718167</v>
+        <v>2.130925984067566</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.12469579483335</v>
+        <v>17.89072027139827</v>
       </c>
       <c r="J5">
-        <v>10.58247169344236</v>
+        <v>6.210051625679256</v>
       </c>
       <c r="K5">
-        <v>10.11524896409019</v>
+        <v>10.08025872478652</v>
       </c>
       <c r="L5">
-        <v>11.66759744746888</v>
+        <v>7.126871283601643</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.58825236498105</v>
+        <v>18.28579499757008</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.87289378060865</v>
+        <v>12.05969961970722</v>
       </c>
       <c r="C6">
-        <v>7.376226337238126</v>
+        <v>6.436063101842239</v>
       </c>
       <c r="D6">
-        <v>8.481492188459884</v>
+        <v>5.486605855024598</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>37.29571595439357</v>
+        <v>24.30946715229516</v>
       </c>
       <c r="G6">
-        <v>3.69162757742421</v>
+        <v>2.131133257538276</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.12962823270574</v>
+        <v>17.90014095418922</v>
       </c>
       <c r="J6">
-        <v>10.58350839705342</v>
+        <v>6.212089505685</v>
       </c>
       <c r="K6">
-        <v>10.10827982444378</v>
+        <v>10.0499974659482</v>
       </c>
       <c r="L6">
-        <v>11.66758396254298</v>
+        <v>7.120271659155359</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.59293186077539</v>
+        <v>18.29193982113439</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.94058053292107</v>
+        <v>12.33276428910891</v>
       </c>
       <c r="C7">
-        <v>7.387658418425537</v>
+        <v>6.472094437743772</v>
       </c>
       <c r="D7">
-        <v>8.486947047283957</v>
+        <v>5.547247406951141</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.26063293095336</v>
+        <v>24.30936079710388</v>
       </c>
       <c r="G7">
-        <v>3.691066626280639</v>
+        <v>2.12970311651367</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.0957989885131</v>
+        <v>17.83566611584834</v>
       </c>
       <c r="J7">
-        <v>10.57639198090186</v>
+        <v>6.198093432815455</v>
       </c>
       <c r="K7">
-        <v>10.15667094303118</v>
+        <v>10.25812560526607</v>
       </c>
       <c r="L7">
-        <v>11.66781203989444</v>
+        <v>7.166195735557802</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.5609025312727</v>
+        <v>18.25036966477155</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.23917348349084</v>
+        <v>13.53065979734938</v>
       </c>
       <c r="C8">
-        <v>7.437430410185105</v>
+        <v>6.62870290301159</v>
       </c>
       <c r="D8">
-        <v>8.513519612208361</v>
+        <v>5.811246691518754</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>37.12196309330306</v>
+        <v>24.34876182730778</v>
       </c>
       <c r="G8">
-        <v>3.688721273726432</v>
+        <v>2.123600919711901</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.95659406979993</v>
+        <v>17.57438118925045</v>
       </c>
       <c r="J8">
-        <v>10.54695113517174</v>
+        <v>6.140039666048691</v>
       </c>
       <c r="K8">
-        <v>10.37030251111157</v>
+        <v>11.12874190875126</v>
       </c>
       <c r="L8">
-        <v>11.67213559165877</v>
+        <v>7.37137858486072</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.43074207671577</v>
+        <v>18.09450370592723</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.8195683975515</v>
+        <v>15.66473264294002</v>
       </c>
       <c r="C9">
-        <v>7.532399812801029</v>
+        <v>6.926045402803457</v>
       </c>
       <c r="D9">
-        <v>8.574379071483897</v>
+        <v>6.311278518689411</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>36.90820481780798</v>
+        <v>24.57825156988533</v>
       </c>
       <c r="G9">
-        <v>3.684586238115892</v>
+        <v>2.112352179837291</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.71981394975688</v>
+        <v>17.15160757578269</v>
       </c>
       <c r="J9">
-        <v>10.49623818382338</v>
+        <v>6.0397330883208</v>
       </c>
       <c r="K9">
-        <v>10.78634421517178</v>
+        <v>12.66210691589</v>
       </c>
       <c r="L9">
-        <v>11.69242740718602</v>
+        <v>7.779800857123775</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>28.21572943381213</v>
+        <v>17.89603647602468</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.23872629625061</v>
+        <v>17.07148863922725</v>
       </c>
       <c r="C10">
-        <v>7.600387531766915</v>
+        <v>7.137624584199706</v>
       </c>
       <c r="D10">
-        <v>8.624196895970773</v>
+        <v>6.664308884348205</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>36.78674485202183</v>
+        <v>24.84736774444326</v>
       </c>
       <c r="G10">
-        <v>3.681828317484009</v>
+        <v>2.10449265009072</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>27.56790560003646</v>
+        <v>16.90190335976387</v>
       </c>
       <c r="J10">
-        <v>10.46322893584884</v>
+        <v>5.974510304632851</v>
       </c>
       <c r="K10">
-        <v>11.08746481898427</v>
+        <v>13.68194588556315</v>
       </c>
       <c r="L10">
-        <v>11.71443188785597</v>
+        <v>8.081005577923033</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>28.0823357786628</v>
+        <v>17.82337062464251</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.42701346220322</v>
+        <v>17.67713983853965</v>
       </c>
       <c r="C11">
-        <v>7.630890682021235</v>
+        <v>7.232217354248835</v>
       </c>
       <c r="D11">
-        <v>8.647915494312043</v>
+        <v>6.821183887539309</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36.73923971203355</v>
+        <v>24.99315057720358</v>
       </c>
       <c r="G11">
-        <v>3.680633871476543</v>
+        <v>2.100997472979698</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.5035848467654</v>
+        <v>16.80304789686494</v>
       </c>
       <c r="J11">
-        <v>10.44912852982537</v>
+        <v>5.946733543567918</v>
       </c>
       <c r="K11">
-        <v>11.2229041778308</v>
+        <v>14.12276354840507</v>
       </c>
       <c r="L11">
-        <v>11.72595784891356</v>
+        <v>8.217784599431479</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>28.02699848531423</v>
+        <v>17.80795333665224</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.49790470114239</v>
+        <v>17.90160875671853</v>
       </c>
       <c r="C12">
-        <v>7.642377051162069</v>
+        <v>7.267787070115582</v>
       </c>
       <c r="D12">
-        <v>8.657044174733555</v>
+        <v>6.880011225881918</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.7223663134578</v>
+        <v>25.05183028229061</v>
       </c>
       <c r="G12">
-        <v>3.68019016823187</v>
+        <v>2.099684808446663</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>27.47991603084546</v>
+        <v>16.76787042493456</v>
       </c>
       <c r="J12">
-        <v>10.44392025949095</v>
+        <v>5.936492703078386</v>
       </c>
       <c r="K12">
-        <v>11.27392534783486</v>
+        <v>14.28637784002809</v>
       </c>
       <c r="L12">
-        <v>11.73053802490182</v>
+        <v>8.269507334109621</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>28.00681308197582</v>
+        <v>17.80480129049373</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.48265620072335</v>
+        <v>17.85348145855362</v>
       </c>
       <c r="C13">
-        <v>7.639906179583372</v>
+        <v>7.260137817099698</v>
       </c>
       <c r="D13">
-        <v>8.655071694115488</v>
+        <v>6.867368019640133</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.72595065384564</v>
+        <v>25.0390362332854</v>
       </c>
       <c r="G13">
-        <v>3.680285345496674</v>
+        <v>2.09996704087493</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>27.48498292802636</v>
+        <v>16.77534384684436</v>
       </c>
       <c r="J13">
-        <v>10.44503612314296</v>
+        <v>5.938685813811661</v>
       </c>
       <c r="K13">
-        <v>11.2629495864581</v>
+        <v>14.25128773833971</v>
       </c>
       <c r="L13">
-        <v>11.72954205626008</v>
+        <v>8.258371710516572</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>28.01112612234613</v>
+        <v>17.80535825291472</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.43285428696038</v>
+        <v>17.69570448851786</v>
       </c>
       <c r="C14">
-        <v>7.631836984995105</v>
+        <v>7.235148782090183</v>
       </c>
       <c r="D14">
-        <v>8.648663599816567</v>
+        <v>6.826035451331908</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>36.73782915708953</v>
+        <v>24.99790790858507</v>
       </c>
       <c r="G14">
-        <v>3.680597195470984</v>
+        <v>2.100889264988997</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.50162380780777</v>
+        <v>16.80010776862714</v>
       </c>
       <c r="J14">
-        <v>10.44869741431161</v>
+        <v>5.945885427223091</v>
       </c>
       <c r="K14">
-        <v>11.22710731756024</v>
+        <v>14.13629053098689</v>
       </c>
       <c r="L14">
-        <v>11.72633035748277</v>
+        <v>8.222041518395908</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>28.02532238905999</v>
+        <v>17.80763931186949</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.40229402727026</v>
+        <v>17.59842785836604</v>
       </c>
       <c r="C15">
-        <v>7.626885867604773</v>
+        <v>7.219809311941026</v>
       </c>
       <c r="D15">
-        <v>8.64475744676834</v>
+        <v>6.800641647312042</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.74525043430928</v>
+        <v>24.9731714869969</v>
       </c>
       <c r="G15">
-        <v>3.680789332318304</v>
+        <v>2.101455551433338</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>27.5119064404565</v>
+        <v>16.81557456247821</v>
       </c>
       <c r="J15">
-        <v>10.4509571406385</v>
+        <v>5.950331719279248</v>
       </c>
       <c r="K15">
-        <v>11.20511684858862</v>
+        <v>14.06542025881163</v>
       </c>
       <c r="L15">
-        <v>11.72439109421551</v>
+        <v>8.199777715466219</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>28.03411827425775</v>
+        <v>17.80939084374943</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.22636753306823</v>
+        <v>17.03122239935057</v>
       </c>
       <c r="C16">
-        <v>7.598385237808874</v>
+        <v>7.131408307551862</v>
       </c>
       <c r="D16">
-        <v>8.622667667017041</v>
+        <v>6.65397806339246</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>36.79000547491948</v>
+        <v>24.8383205976306</v>
       </c>
       <c r="G16">
-        <v>3.681907584084619</v>
+        <v>2.104722627009286</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>27.57220538192059</v>
+        <v>16.90867189846699</v>
       </c>
       <c r="J16">
-        <v>10.46416881972256</v>
+        <v>5.976364127371381</v>
       </c>
       <c r="K16">
-        <v>11.07857861401402</v>
+        <v>13.65267302874095</v>
       </c>
       <c r="L16">
-        <v>11.71370893853598</v>
+        <v>8.072058589153867</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>28.08605983750026</v>
+        <v>17.82474583642769</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.1177826640253</v>
+        <v>16.67451504936243</v>
       </c>
       <c r="C17">
-        <v>7.580789779654117</v>
+        <v>7.076743732015616</v>
       </c>
       <c r="D17">
-        <v>8.609383381381429</v>
+        <v>6.563019321669866</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36.81944685989586</v>
+        <v>24.76166141455789</v>
       </c>
       <c r="G17">
-        <v>3.6826089705861</v>
+        <v>2.106746957084194</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.61042207055696</v>
+        <v>16.96965352318176</v>
       </c>
       <c r="J17">
-        <v>10.47250797776632</v>
+        <v>5.992822764673643</v>
       </c>
       <c r="K17">
-        <v>11.00052389605249</v>
+        <v>13.39355132449204</v>
       </c>
       <c r="L17">
-        <v>11.70754236690765</v>
+        <v>7.993617406606456</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>28.11929389333329</v>
+        <v>17.83878874800233</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.05510627777051</v>
+        <v>16.46611573473204</v>
       </c>
       <c r="C18">
-        <v>7.570629556964685</v>
+        <v>7.045146916752517</v>
       </c>
       <c r="D18">
-        <v>8.601842334225289</v>
+        <v>6.51035423178921</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>36.83710992324401</v>
+        <v>24.71976136223482</v>
       </c>
       <c r="G18">
-        <v>3.683018053220103</v>
+        <v>2.107918884198598</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27.63285349192425</v>
+        <v>17.00610675867618</v>
       </c>
       <c r="J18">
-        <v>10.47739065286377</v>
+        <v>6.002467205619452</v>
       </c>
       <c r="K18">
-        <v>10.95548632610593</v>
+        <v>13.24233494170836</v>
       </c>
       <c r="L18">
-        <v>11.70413836830444</v>
+        <v>7.948479542027309</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>28.13891219291159</v>
+        <v>17.84851691998808</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.03384917812091</v>
+        <v>16.3949988497582</v>
       </c>
       <c r="C19">
-        <v>7.56718275243283</v>
+        <v>7.03442252859372</v>
       </c>
       <c r="D19">
-        <v>8.599306339698598</v>
+        <v>6.492464373990184</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>36.84321551145264</v>
+        <v>24.70594762464056</v>
       </c>
       <c r="G19">
-        <v>3.683157535579129</v>
+        <v>2.108317000498807</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.64052569963828</v>
+        <v>17.01868186128139</v>
       </c>
       <c r="J19">
-        <v>10.47905866274248</v>
+        <v>6.005763041677085</v>
       </c>
       <c r="K19">
-        <v>10.94021429943906</v>
+        <v>13.19076167343487</v>
       </c>
       <c r="L19">
-        <v>11.70301044004404</v>
+        <v>7.933194313543379</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>28.14564095879522</v>
+        <v>17.85208977858174</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.12936509049134</v>
+        <v>16.71282114117361</v>
       </c>
       <c r="C20">
-        <v>7.582666988220321</v>
+        <v>7.082579027052462</v>
       </c>
       <c r="D20">
-        <v>8.610787230444865</v>
+        <v>6.572738385187929</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>36.81623729623015</v>
+        <v>24.76959416498535</v>
       </c>
       <c r="G20">
-        <v>3.682533720927896</v>
+        <v>2.10653068311589</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.60630724379456</v>
+        <v>16.96301831620815</v>
       </c>
       <c r="J20">
-        <v>10.47161134063084</v>
+        <v>5.991052268804977</v>
       </c>
       <c r="K20">
-        <v>11.00884804127234</v>
+        <v>13.42136047356841</v>
       </c>
       <c r="L20">
-        <v>11.70818404185863</v>
+        <v>8.001970018803098</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>28.11570400954724</v>
+        <v>17.8371219041494</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.44749392124531</v>
+        <v>17.74217937169181</v>
       </c>
       <c r="C21">
-        <v>7.634208881089727</v>
+        <v>7.242495557038993</v>
       </c>
       <c r="D21">
-        <v>8.650541864027247</v>
+        <v>6.83819182046797</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.73430985911214</v>
+        <v>25.00989309482988</v>
       </c>
       <c r="G21">
-        <v>3.680505364296606</v>
+        <v>2.100618095368706</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.49671730222256</v>
+        <v>16.79277160522465</v>
       </c>
       <c r="J21">
-        <v>10.44761844568763</v>
+        <v>5.943763146746211</v>
       </c>
       <c r="K21">
-        <v>11.23764264988379</v>
+        <v>14.17015782650885</v>
       </c>
       <c r="L21">
-        <v>11.72726788172151</v>
+        <v>8.232714829906254</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>28.02113170490254</v>
+        <v>17.80689519827053</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.65299748793857</v>
+        <v>18.38651688248476</v>
       </c>
       <c r="C22">
-        <v>7.667516887937073</v>
+        <v>7.345545505493417</v>
       </c>
       <c r="D22">
-        <v>8.677378018614498</v>
+        <v>7.008297536707292</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.6872696785166</v>
+        <v>25.18724616959744</v>
       </c>
       <c r="G22">
-        <v>3.67922986833493</v>
+        <v>2.096816986037252</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>27.4291046005321</v>
+        <v>16.69473160096965</v>
       </c>
       <c r="J22">
-        <v>10.43270251837725</v>
+        <v>5.914477975217089</v>
       </c>
       <c r="K22">
-        <v>11.38559874937156</v>
+        <v>14.64023346915121</v>
       </c>
       <c r="L22">
-        <v>11.74099539484928</v>
+        <v>8.383082098990833</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.963809733511</v>
+        <v>17.8028690171258</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.54355778180208</v>
+        <v>18.04520337599137</v>
       </c>
       <c r="C23">
-        <v>7.649775455001759</v>
+        <v>7.290683503111486</v>
       </c>
       <c r="D23">
-        <v>8.662978568552578</v>
+        <v>6.917831031757469</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.71178029418643</v>
+        <v>25.09069504267342</v>
       </c>
       <c r="G23">
-        <v>3.67990604917033</v>
+        <v>2.098840158132509</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27.46482370642772</v>
+        <v>16.74579915326059</v>
       </c>
       <c r="J23">
-        <v>10.44059358780327</v>
+        <v>5.929957802692066</v>
       </c>
       <c r="K23">
-        <v>11.30679020231286</v>
+        <v>14.39110708959861</v>
       </c>
       <c r="L23">
-        <v>11.73355476699355</v>
+        <v>8.302879959135154</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.99399266220895</v>
+        <v>17.80352835728764</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.12412944761197</v>
+        <v>16.69551331302255</v>
       </c>
       <c r="C24">
-        <v>7.58181844014873</v>
+        <v>7.079941416916586</v>
       </c>
       <c r="D24">
-        <v>8.610152250068214</v>
+        <v>6.568345551005139</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>36.81768604494694</v>
+        <v>24.76600101101937</v>
       </c>
       <c r="G24">
-        <v>3.682567723084704</v>
+        <v>2.106628435259195</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.60816612367969</v>
+        <v>16.96601376133212</v>
       </c>
       <c r="J24">
-        <v>10.47201643494632</v>
+        <v>5.991852143025477</v>
       </c>
       <c r="K24">
-        <v>11.00508519908183</v>
+        <v>13.40879494707314</v>
       </c>
       <c r="L24">
-        <v>11.70789350046994</v>
+        <v>7.998193927566569</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>28.11732540248512</v>
+        <v>17.83787034148637</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.66354191011074</v>
+        <v>15.11593248388488</v>
       </c>
       <c r="C25">
-        <v>7.507008659012501</v>
+        <v>6.846752566483358</v>
       </c>
       <c r="D25">
-        <v>8.557001095495401</v>
+        <v>6.178294356608243</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.95979057798991</v>
+        <v>24.49905404605375</v>
       </c>
       <c r="G25">
-        <v>3.685655480220668</v>
+        <v>2.115321697366704</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.77999537909469</v>
+        <v>17.25576689513615</v>
       </c>
       <c r="J25">
-        <v>10.50920894124551</v>
+        <v>6.065398089095471</v>
       </c>
       <c r="K25">
-        <v>10.67439590366976</v>
+        <v>12.26601993668591</v>
       </c>
       <c r="L25">
-        <v>11.68568357358704</v>
+        <v>7.668935237947136</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>28.26958376040688</v>
+        <v>17.93746200341518</v>
       </c>
     </row>
   </sheetData>
